--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/4.TraBH/TBH221014_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/4.TraBH/TBH221014_AnhTuanNB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -90,27 +90,12 @@
     <t xml:space="preserve">Số điện thoại: </t>
   </si>
   <si>
-    <t>TG102LE</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>Người đại diện: Đại lý Ngọc Kim Anh</t>
-  </si>
-  <si>
     <t>ĐC: AA46 TT19 KĐT Văn Quán, P. Văn Quán, Q. Hà Đông, TP. Hà Nội</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 07 tháng 10 năm 2022</t>
-  </si>
-  <si>
-    <t>VNSH02</t>
-  </si>
-  <si>
-    <t>WSP21060004S0296</t>
-  </si>
-  <si>
     <t>Còn BH</t>
   </si>
   <si>
@@ -120,88 +105,55 @@
     <t>Test lại thiết bị</t>
   </si>
   <si>
-    <t>Đã test lại bằng 3 lại sim vina, mobi, viettel</t>
-  </si>
-  <si>
     <t>TG102LE-4G</t>
   </si>
   <si>
-    <t>Thiết bị oxi hóa MCU</t>
-  </si>
-  <si>
-    <t>Báo giá không sửa chữa</t>
-  </si>
-  <si>
-    <t>Hết hạn dịch vụ</t>
-  </si>
-  <si>
-    <t>Mất cấu hình</t>
-  </si>
-  <si>
-    <t>Thiết bị không nhận sim</t>
-  </si>
-  <si>
-    <t>Lỗi connector nguồn</t>
-  </si>
-  <si>
-    <t>Thay led GSM</t>
-  </si>
-  <si>
-    <t>Nâng cấp FW</t>
-  </si>
-  <si>
     <t>Nạp lại FW</t>
   </si>
   <si>
-    <t>Thay connector nguồn, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Lỗi led GSM</t>
-  </si>
-  <si>
-    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Lỗi anten GSM</t>
-  </si>
-  <si>
-    <t>Thay anten GSM</t>
-  </si>
-  <si>
-    <t>Chập MCU</t>
-  </si>
-  <si>
-    <t>Lỗi led driver</t>
-  </si>
-  <si>
-    <t>TG102SE</t>
-  </si>
-  <si>
-    <t>Thiết bị lỗi module GPS</t>
-  </si>
-  <si>
-    <t>Thiết bị treo</t>
-  </si>
-  <si>
-    <t>Lỗi led GSM, oxi hóa connector nguồn</t>
-  </si>
-  <si>
-    <t>Thay led GSM, xử lý connector nguồn, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>TG102V</t>
-  </si>
-  <si>
-    <t>Thiết bị chập nổ nguồn</t>
-  </si>
-  <si>
-    <t>Xử lý lại nguồn</t>
-  </si>
-  <si>
-    <t>Xử lý lại khay sim</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 14 tháng 10 năm 2022</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi ACC, GSM chốt chậm</t>
+  </si>
+  <si>
+    <t>GSM chốt chậm</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, xử lý lại ACC</t>
+  </si>
+  <si>
+    <t>TG102E</t>
+  </si>
+  <si>
+    <t>Imei mới: 862549041582746</t>
+  </si>
+  <si>
+    <t>Chập module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị mất id</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>Dây nguồn</t>
+  </si>
+  <si>
+    <t>SL: 2</t>
+  </si>
+  <si>
+    <t>Test lại dây nguồn</t>
   </si>
 </sst>
 </file>
@@ -682,7 +634,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -701,83 +653,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,16 +694,7 @@
     <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,9 +719,6 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,6 +735,39 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,13 +777,73 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1203,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M83"/>
+  <dimension ref="A2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1258,9 +1216,9 @@
     <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -1268,836 +1226,437 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="28" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="31" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="34" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="41" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="14">
+        <v>862205051190108</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14">
+        <v>862205051193680</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14">
+        <v>862205051178665</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>4</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="14">
+        <v>860906041182822</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14">
+        <v>860906041142677</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
-        <v>2</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="39">
-        <v>862205051192849</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
-        <v>3</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="39">
-        <v>868183034639091</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
-        <v>4</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="39">
-        <v>868183034620083</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
-        <v>5</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="39">
-        <v>868183038054982</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
-        <v>6</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="39">
-        <v>868183034531082</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
-        <v>7</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="39">
-        <v>867857039938233</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
-        <v>8</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="39">
-        <v>868183038518820</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
-        <v>9</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="39">
-        <v>868183033877502</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
-        <v>10</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="39">
-        <v>868183038027681</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
-        <v>11</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="39">
-        <v>868183034626445</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
-        <v>12</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="39">
-        <v>868183037863979</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
-        <v>13</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="39">
-        <v>868183033867255</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <v>14</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="39">
-        <v>868183034522347</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
-        <v>15</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="39">
-        <v>868183034536875</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
-        <v>16</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="39">
-        <v>868183037860686</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
-        <v>17</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="39">
-        <v>868183038077736</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <v>18</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="39">
-        <v>862631039266670</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
-        <v>19</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="39">
-        <v>861694031741505</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
-        <v>20</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="39">
-        <v>862631034746221</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="76"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <v>21</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="39">
-        <v>864811037168114</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
-        <v>22</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="39">
-        <v>864811037219727</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="57"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="57"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="57"/>
-    </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="67"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="83" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+    </row>
+    <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1.2" bottom="1.2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="28" max="8" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>